--- a/branches/add-patient-identifier/ValueSet-vs-art-regimen-change-type.xlsx
+++ b/branches/add-patient-identifier/ValueSet-vs-art-regimen-change-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:22:20+00:00</t>
+    <t>2023-03-03T14:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/add-patient-identifier/ValueSet-vs-art-regimen-change-type.xlsx
+++ b/branches/add-patient-identifier/ValueSet-vs-art-regimen-change-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:37:52+00:00</t>
+    <t>2023-03-03T14:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
